--- a/notebooks/cal_curve after.xlsx
+++ b/notebooks/cal_curve after.xlsx
@@ -200,6 +200,16 @@
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -334,10 +344,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -647,7 +657,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
